--- a/data/list-outlines-shells.xlsx
+++ b/data/list-outlines-shells.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Documents\GitHub\Glycymeris-Perforations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA161763-3B4C-4F1A-8342-4B9B19122C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A9E35-F812-4567-95C5-8D9D5463FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{E7A1107D-6812-4530-903A-2829AA9063C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{E7A1107D-6812-4530-903A-2829AA9063C0}"/>
   </bookViews>
   <sheets>
     <sheet name="archaeo-PSD-list" sheetId="1" r:id="rId1"/>
     <sheet name="exp-psd-list" sheetId="2" r:id="rId2"/>
+    <sheet name="nat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -688,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B3D7CB-AB74-42B5-8F04-1E43B0EF8EBA}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -937,4 +938,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E74A610-BE4F-4317-A62B-BDFB6AB27DFC}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>